--- a/data/pca/factorExposure/factorExposure_2012-11-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-19.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001564320271358733</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002015760570050578</v>
+      </c>
+      <c r="C2">
+        <v>-0.03070174116065582</v>
+      </c>
+      <c r="D2">
+        <v>0.004106902441847359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001545615148065388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006947936008104078</v>
+      </c>
+      <c r="C4">
+        <v>-0.08320735944454193</v>
+      </c>
+      <c r="D4">
+        <v>0.07505844647885704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0006297809723448817</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01452205660069968</v>
+      </c>
+      <c r="C6">
+        <v>-0.1148949642773564</v>
+      </c>
+      <c r="D6">
+        <v>0.03247710635688889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.00190370820822304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004884908264304335</v>
+      </c>
+      <c r="C7">
+        <v>-0.0571499089890807</v>
+      </c>
+      <c r="D7">
+        <v>0.03232499793350658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0004581376278088448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.006040834401399345</v>
+      </c>
+      <c r="C8">
+        <v>-0.03660538350988084</v>
+      </c>
+      <c r="D8">
+        <v>0.04055349673508175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.004144546980988665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005050559258357052</v>
+      </c>
+      <c r="C9">
+        <v>-0.07039807161494084</v>
+      </c>
+      <c r="D9">
+        <v>0.07283416809658787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.001852350965375582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005879744845513474</v>
+      </c>
+      <c r="C10">
+        <v>-0.05767727627660239</v>
+      </c>
+      <c r="D10">
+        <v>-0.1948942853956422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.004640480405082572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005563534015438412</v>
+      </c>
+      <c r="C11">
+        <v>-0.0793260610604536</v>
+      </c>
+      <c r="D11">
+        <v>0.06277402615976531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001436780968439385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.00397044233631509</v>
+      </c>
+      <c r="C12">
+        <v>-0.0634285165767744</v>
+      </c>
+      <c r="D12">
+        <v>0.04888701217768482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.001849083600043019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.009114464650376299</v>
+      </c>
+      <c r="C13">
+        <v>-0.0698786095421934</v>
+      </c>
+      <c r="D13">
+        <v>0.05690709585280556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.002406050255930172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001213834036107726</v>
+      </c>
+      <c r="C14">
+        <v>-0.04398816029052885</v>
+      </c>
+      <c r="D14">
+        <v>0.006460192064383198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001009380681932683</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005921718646475107</v>
+      </c>
+      <c r="C15">
+        <v>-0.04161862603029894</v>
+      </c>
+      <c r="D15">
+        <v>0.03120648664750405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.002086848355195817</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004991638681266106</v>
+      </c>
+      <c r="C16">
+        <v>-0.0644156161827438</v>
+      </c>
+      <c r="D16">
+        <v>0.05389373398680496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001027209568079321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008764785450224256</v>
+      </c>
+      <c r="C20">
+        <v>-0.06531148217564368</v>
+      </c>
+      <c r="D20">
+        <v>0.04299048983183667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005768287813916704</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009856581319741004</v>
+      </c>
+      <c r="C21">
+        <v>-0.02178505234832504</v>
+      </c>
+      <c r="D21">
+        <v>0.03767922491724694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01767424384416539</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006401135963098689</v>
+      </c>
+      <c r="C22">
+        <v>-0.0933283053378908</v>
+      </c>
+      <c r="D22">
+        <v>0.1128029815773623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01800872740973261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006214604644455934</v>
+      </c>
+      <c r="C23">
+        <v>-0.09414713134405439</v>
+      </c>
+      <c r="D23">
+        <v>0.11275664213034</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.003762925841505426</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005432445753795288</v>
+      </c>
+      <c r="C24">
+        <v>-0.07609795105810888</v>
+      </c>
+      <c r="D24">
+        <v>0.06744874125937482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.00588234567104104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003208655233555232</v>
+      </c>
+      <c r="C25">
+        <v>-0.07775746087535945</v>
+      </c>
+      <c r="D25">
+        <v>0.06455434166764991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004341693135770625</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.00362311351094277</v>
+      </c>
+      <c r="C26">
+        <v>-0.04013714074379807</v>
+      </c>
+      <c r="D26">
+        <v>0.02238679931371727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.007063376636261308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0004839944753248552</v>
+      </c>
+      <c r="C28">
+        <v>-0.1077261799273105</v>
+      </c>
+      <c r="D28">
+        <v>-0.3202217933286747</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001491915889117139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002953625763820168</v>
+      </c>
+      <c r="C29">
+        <v>-0.04985870151080718</v>
+      </c>
+      <c r="D29">
+        <v>0.00872134463486449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005052495212002343</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.01012181241580813</v>
+      </c>
+      <c r="C30">
+        <v>-0.1416066657260719</v>
+      </c>
+      <c r="D30">
+        <v>0.1044765807803765</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001694703861036145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006428602564174999</v>
+      </c>
+      <c r="C31">
+        <v>-0.04455667007321769</v>
+      </c>
+      <c r="D31">
+        <v>0.02887579525844371</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0001369751170067669</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003906504385391195</v>
+      </c>
+      <c r="C32">
+        <v>-0.03804677497081851</v>
+      </c>
+      <c r="D32">
+        <v>0.02501220807357317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003719261087224656</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008642460279479455</v>
+      </c>
+      <c r="C33">
+        <v>-0.08681208206677057</v>
+      </c>
+      <c r="D33">
+        <v>0.06472958041515073</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005388854605842582</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004065065511885961</v>
+      </c>
+      <c r="C34">
+        <v>-0.05693156450318161</v>
+      </c>
+      <c r="D34">
+        <v>0.05463432515218808</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0007551763685437628</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005213704016261507</v>
+      </c>
+      <c r="C35">
+        <v>-0.03993175714181406</v>
+      </c>
+      <c r="D35">
+        <v>0.01864231062714994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.0042884175514243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.0009604658802839247</v>
+      </c>
+      <c r="C36">
+        <v>-0.02525671294962885</v>
+      </c>
+      <c r="D36">
+        <v>0.02163752969870775</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001176464410148529</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009105961842419781</v>
+      </c>
+      <c r="C38">
+        <v>-0.03444680892301117</v>
+      </c>
+      <c r="D38">
+        <v>0.01454812885444805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01459269072768883</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0009650955098625931</v>
+      </c>
+      <c r="C39">
+        <v>-0.1151607125581141</v>
+      </c>
+      <c r="D39">
+        <v>0.07512509174558497</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009961103627093404</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003438979570805331</v>
+      </c>
+      <c r="C40">
+        <v>-0.09075905772063569</v>
+      </c>
+      <c r="D40">
+        <v>0.01317430840659659</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0008438918724946461</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007256376959306289</v>
+      </c>
+      <c r="C41">
+        <v>-0.0377830425706692</v>
+      </c>
+      <c r="D41">
+        <v>0.03800053633320986</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003804310401801654</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.004045869509790138</v>
+      </c>
+      <c r="C43">
+        <v>-0.05349588596076695</v>
+      </c>
+      <c r="D43">
+        <v>0.02399233365751292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.01660220644441088</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003044115518670959</v>
+      </c>
+      <c r="C44">
+        <v>-0.1090269755611507</v>
+      </c>
+      <c r="D44">
+        <v>0.06829371311079413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.0006925964025662358</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002082128224204103</v>
+      </c>
+      <c r="C46">
+        <v>-0.03274055294927983</v>
+      </c>
+      <c r="D46">
+        <v>0.03510281437911913</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.001195051716497483</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002428384600907498</v>
+      </c>
+      <c r="C47">
+        <v>-0.03699176769332111</v>
+      </c>
+      <c r="D47">
+        <v>0.02240944801707453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.004048253993549094</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006865246380131617</v>
+      </c>
+      <c r="C48">
+        <v>-0.03107796697782497</v>
+      </c>
+      <c r="D48">
+        <v>0.03225382915165568</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01393751593820585</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01622726990200272</v>
+      </c>
+      <c r="C49">
+        <v>-0.1832625328937111</v>
+      </c>
+      <c r="D49">
+        <v>0.01657807581962965</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001875791655410672</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003809426323952574</v>
+      </c>
+      <c r="C50">
+        <v>-0.04324238422657575</v>
+      </c>
+      <c r="D50">
+        <v>0.03739364005338425</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-9.68584918034381e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.00474442862973785</v>
+      </c>
+      <c r="C51">
+        <v>-0.02593503856127713</v>
+      </c>
+      <c r="D51">
+        <v>0.02100498097400275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001167493352281428</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02118037934252787</v>
+      </c>
+      <c r="C53">
+        <v>-0.1697743033518144</v>
+      </c>
+      <c r="D53">
+        <v>0.02807904574780787</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001387379624270707</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008863142282631103</v>
+      </c>
+      <c r="C54">
+        <v>-0.05421243793838269</v>
+      </c>
+      <c r="D54">
+        <v>0.04579390456666584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.005894601869177995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.00957501223116362</v>
+      </c>
+      <c r="C55">
+        <v>-0.1100819534888026</v>
+      </c>
+      <c r="D55">
+        <v>0.03953752545887647</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.0007212010637407774</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02039716908534478</v>
+      </c>
+      <c r="C56">
+        <v>-0.1742339011618214</v>
+      </c>
+      <c r="D56">
+        <v>0.01867726259379334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009678166604863096</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01950850377035759</v>
+      </c>
+      <c r="C58">
+        <v>-0.1092951195831369</v>
+      </c>
+      <c r="D58">
+        <v>0.06246720561974751</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009083640463307579</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01054891631871818</v>
+      </c>
+      <c r="C59">
+        <v>-0.1660415232416395</v>
+      </c>
+      <c r="D59">
+        <v>-0.3320065449319076</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.00615178757304046</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02527428071742047</v>
+      </c>
+      <c r="C60">
+        <v>-0.2231127771749399</v>
+      </c>
+      <c r="D60">
+        <v>0.02902724199500375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01565061654636017</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001675765958262777</v>
+      </c>
+      <c r="C61">
+        <v>-0.09464770608257994</v>
+      </c>
+      <c r="D61">
+        <v>0.05671460997645879</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1595003378993594</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.147754973766138</v>
+      </c>
+      <c r="C62">
+        <v>-0.09341856485099397</v>
+      </c>
+      <c r="D62">
+        <v>0.03744243281389872</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0008763338167223555</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006783865129100473</v>
+      </c>
+      <c r="C63">
+        <v>-0.05469506190263172</v>
+      </c>
+      <c r="D63">
+        <v>0.02625472725852024</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.001160520087285652</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01549533185610087</v>
+      </c>
+      <c r="C64">
+        <v>-0.1056072873166955</v>
+      </c>
+      <c r="D64">
+        <v>0.0613033536335602</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.001874953544891485</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01804914865331312</v>
+      </c>
+      <c r="C65">
+        <v>-0.1247227610530055</v>
+      </c>
+      <c r="D65">
+        <v>0.02306003319072724</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.008320254857140058</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01343820625368799</v>
+      </c>
+      <c r="C66">
+        <v>-0.1589667714812108</v>
+      </c>
+      <c r="D66">
+        <v>0.1141380943403831</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.002822121359874033</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01559469660176999</v>
+      </c>
+      <c r="C67">
+        <v>-0.06538305336749091</v>
+      </c>
+      <c r="D67">
+        <v>0.02644029773641813</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.007092690894507805</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001180047695432187</v>
+      </c>
+      <c r="C68">
+        <v>-0.08722669508463282</v>
+      </c>
+      <c r="D68">
+        <v>-0.2613459461263229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.0022537940743106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006135576698896344</v>
+      </c>
+      <c r="C69">
+        <v>-0.05100376264185737</v>
+      </c>
+      <c r="D69">
+        <v>0.03748592766974676</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0004677630859138582</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001774969458066564</v>
+      </c>
+      <c r="C70">
+        <v>-0.002660142826345203</v>
+      </c>
+      <c r="D70">
+        <v>0.00131682916308321</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001466460001672128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006250726172869679</v>
+      </c>
+      <c r="C71">
+        <v>-0.09467475606786645</v>
+      </c>
+      <c r="D71">
+        <v>-0.3035948498754059</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.006116121380970511</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01650508219584477</v>
+      </c>
+      <c r="C72">
+        <v>-0.1533076032581272</v>
+      </c>
+      <c r="D72">
+        <v>0.01504096420026989</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01637595960725386</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03145064928450834</v>
+      </c>
+      <c r="C73">
+        <v>-0.2809589896178307</v>
+      </c>
+      <c r="D73">
+        <v>0.06035944800359955</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.007060633823419538</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.00230115411878473</v>
+      </c>
+      <c r="C74">
+        <v>-0.104002051725087</v>
+      </c>
+      <c r="D74">
+        <v>0.03477314959407014</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.004211565546662439</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01171108960763886</v>
+      </c>
+      <c r="C75">
+        <v>-0.1243580908712802</v>
+      </c>
+      <c r="D75">
+        <v>0.02151855732545827</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.005320612331122337</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02283634253066161</v>
+      </c>
+      <c r="C76">
+        <v>-0.1489613076690723</v>
+      </c>
+      <c r="D76">
+        <v>0.05570032216466213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.003658690577312181</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02252043403283504</v>
+      </c>
+      <c r="C77">
+        <v>-0.1161271464846954</v>
+      </c>
+      <c r="D77">
+        <v>0.07930258558015203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>8.849682241140917e-05</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01533414030008302</v>
+      </c>
+      <c r="C78">
+        <v>-0.09672504873327335</v>
+      </c>
+      <c r="D78">
+        <v>0.07192755521069565</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.021724417473577</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03837512772350192</v>
+      </c>
+      <c r="C79">
+        <v>-0.1568417967916698</v>
+      </c>
+      <c r="D79">
+        <v>0.03231513498632124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.00512587605389768</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009998155849484904</v>
+      </c>
+      <c r="C80">
+        <v>-0.03962616865266202</v>
+      </c>
+      <c r="D80">
+        <v>0.02929274880050062</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0003833289736245536</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01572688561418786</v>
+      </c>
+      <c r="C81">
+        <v>-0.1291045829924161</v>
+      </c>
+      <c r="D81">
+        <v>0.0406505908473602</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.002378913273069805</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02022186112976438</v>
+      </c>
+      <c r="C82">
+        <v>-0.1400171874227467</v>
+      </c>
+      <c r="D82">
+        <v>0.04345630018073112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.005959964967691102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01043290892131564</v>
+      </c>
+      <c r="C83">
+        <v>-0.05532673817258978</v>
+      </c>
+      <c r="D83">
+        <v>0.05626221594745029</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01266451012333437</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01159500533864477</v>
+      </c>
+      <c r="C84">
+        <v>-0.03698653321607</v>
+      </c>
+      <c r="D84">
+        <v>-0.0003040691268624965</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01218499659877781</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02938078062413417</v>
+      </c>
+      <c r="C85">
+        <v>-0.1251215405890198</v>
+      </c>
+      <c r="D85">
+        <v>0.04364651639160343</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003262774838465935</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.00469872844493919</v>
+      </c>
+      <c r="C86">
+        <v>-0.04931273741370223</v>
+      </c>
+      <c r="D86">
+        <v>0.03103116374989572</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004722325968601022</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01094815992168801</v>
+      </c>
+      <c r="C87">
+        <v>-0.1284357840177908</v>
+      </c>
+      <c r="D87">
+        <v>0.0729108486084903</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01141253542085039</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002526735101351145</v>
+      </c>
+      <c r="C88">
+        <v>-0.06493579344337615</v>
+      </c>
+      <c r="D88">
+        <v>0.01998204839007613</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01550425377078703</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.0009662093955217331</v>
+      </c>
+      <c r="C89">
+        <v>-0.1476997493061388</v>
+      </c>
+      <c r="D89">
+        <v>-0.3289954046035281</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.00310041587160278</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007088396873992364</v>
+      </c>
+      <c r="C90">
+        <v>-0.1213830459691807</v>
+      </c>
+      <c r="D90">
+        <v>-0.3169943876002281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001489180604085195</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01053247859771679</v>
+      </c>
+      <c r="C91">
+        <v>-0.1001764628313484</v>
+      </c>
+      <c r="D91">
+        <v>0.0233515463665317</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01033969054754362</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.001487651773018318</v>
+      </c>
+      <c r="C92">
+        <v>-0.1367405993277238</v>
+      </c>
+      <c r="D92">
+        <v>-0.3219859146365934</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.002127428169024297</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005565648968991228</v>
+      </c>
+      <c r="C93">
+        <v>-0.1063748320775112</v>
+      </c>
+      <c r="D93">
+        <v>-0.3007139462739442</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0003899192606598495</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02264421504388332</v>
+      </c>
+      <c r="C94">
+        <v>-0.1453220443572245</v>
+      </c>
+      <c r="D94">
+        <v>0.05217432005707286</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.003338064512948013</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01772752436537278</v>
+      </c>
+      <c r="C95">
+        <v>-0.1245244469547409</v>
+      </c>
+      <c r="D95">
+        <v>0.05995205168770138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.002282714088842225</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03624945626664317</v>
+      </c>
+      <c r="C97">
+        <v>-0.2171299699423188</v>
+      </c>
+      <c r="D97">
+        <v>-0.01485435364263613</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.004577798702188526</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03799026009088013</v>
+      </c>
+      <c r="C98">
+        <v>-0.2489512439046422</v>
+      </c>
+      <c r="D98">
+        <v>0.04882212562739364</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9850510117149891</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9814492661592029</v>
+      </c>
+      <c r="C99">
+        <v>0.1198859992880191</v>
+      </c>
+      <c r="D99">
+        <v>-0.02588502943376148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001412666322401397</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002995882755034956</v>
+      </c>
+      <c r="C101">
+        <v>-0.04999806008635378</v>
+      </c>
+      <c r="D101">
+        <v>0.00909999063119581</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
